--- a/medicine/Psychotrope/Yuanyang_(boisson)/Yuanyang_(boisson).xlsx
+++ b/medicine/Psychotrope/Yuanyang_(boisson)/Yuanyang_(boisson).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le yuanyang (chinois : 鴛鴦 ; pinyin : yuānyāng ; cantonais Yale : Yūnyēung), appelé aussi ying yong ou yuenyeung, est une boisson constituée d'un mélange de café et de thé au lait hongkongais.
@@ -513,7 +525,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom yuanyang se réfère au canard mandarin. Dans la culture chinoise, le canard mandarin est un symbole de l'amour conjugal étant donné que les oiseaux apparaissent généralement par paires et que le mâle et la femelle sont très différents comme chez les humains. Cette même connotation de paire et de différence se retrouve dans la boisson.
 </t>
@@ -544,7 +558,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le yuanyang est disponible dans plusieurs types de restaurants à Hong Kong. Certains disent que le yuanyang a été initialement servi dans les dai pai de dong (stands de cuisine de rue) et dans les cha chaan teng.
 De nombreux Occidentaux disputent à Hong Kong la paternité du breuvage. Pour certains, c'est une invention néerlandaise, alors que d'autres prétendent aussi avoir inventé indépendamment une boisson mélangeant le thé et le café.
